--- a/static/download/2021/RP3_ERT_ATFM_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_ERT_ATFM_2021_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>Data source</t>
   </si>
@@ -422,7 +422,7 @@
     <t>Fintraffic ANS</t>
   </si>
   <si>
-    <t>HCAA</t>
+    <t>HASP</t>
   </si>
   <si>
     <t>HungaroControl (EC)</t>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>UK removed from SES area</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Post ops adjustments for 2021 included</t>
   </si>
 </sst>
 </file>
@@ -1197,16 +1203,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
-    <col customWidth="1" min="8" max="8" width="23.14"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="10.5"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1237,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="10">
-        <v>44578.0</v>
+        <v>44665.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1485,23 +1491,23 @@
       </c>
       <c r="C12" s="32">
         <f t="shared" si="1"/>
-        <v>0.3268904053</v>
+        <v>0.324850419</v>
       </c>
       <c r="D12" s="39">
         <v>5471115.0</v>
       </c>
       <c r="E12" s="40">
-        <v>1788455.0</v>
+        <v>1777294.0</v>
       </c>
       <c r="F12" s="43">
         <v>0.35</v>
       </c>
       <c r="G12" s="42">
         <f t="shared" si="2"/>
-        <v>-0.02310959466</v>
+        <v>-0.02514958103</v>
       </c>
       <c r="H12" s="37">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
@@ -1568,15 +1574,15 @@
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.43"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="14.14"/>
-    <col customWidth="1" min="5" max="5" width="10.43"/>
-    <col customWidth="1" min="6" max="6" width="9.43"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
+    <col customWidth="1" min="1" max="1" width="15.25"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="4" max="4" width="12.38"/>
+    <col customWidth="1" min="5" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1607,7 +1613,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2189,17 +2195,17 @@
       </c>
       <c r="B31" s="68">
         <f t="shared" si="1"/>
-        <v>0.03576514533</v>
+        <v>0.03280494922</v>
       </c>
       <c r="C31" s="70">
         <v>214175.0</v>
       </c>
       <c r="D31" s="70">
-        <v>7660.0</v>
+        <v>7026.0</v>
       </c>
       <c r="E31" s="68">
         <f t="shared" ref="E31:E41" si="3">sum(D$30:D31)/sum(C$30:C31)</f>
-        <v>0.02775809629</v>
+        <v>0.02638855286</v>
       </c>
       <c r="F31" s="77">
         <v>1.0</v>
@@ -2211,17 +2217,17 @@
       </c>
       <c r="B32" s="63">
         <f t="shared" si="1"/>
-        <v>0.02954633341</v>
+        <v>0.02593583809</v>
       </c>
       <c r="C32" s="70">
         <v>261183.0</v>
       </c>
       <c r="D32" s="70">
-        <v>7717.0</v>
+        <v>6774.0</v>
       </c>
       <c r="E32" s="68">
         <f t="shared" si="3"/>
-        <v>0.02840310394</v>
+        <v>0.02622526104</v>
       </c>
       <c r="F32" s="77">
         <v>1.0</v>
@@ -2243,7 +2249,7 @@
       </c>
       <c r="E33" s="68">
         <f t="shared" si="3"/>
-        <v>0.02477905295</v>
+        <v>0.02321235555</v>
       </c>
       <c r="F33" s="77">
         <v>1.0</v>
@@ -2255,17 +2261,17 @@
       </c>
       <c r="B34" s="63">
         <f t="shared" si="1"/>
-        <v>0.02489684698</v>
+        <v>0.02315278573</v>
       </c>
       <c r="C34" s="70">
         <v>335424.0</v>
       </c>
       <c r="D34" s="70">
-        <v>8351.0</v>
+        <v>7766.0</v>
       </c>
       <c r="E34" s="68">
         <f t="shared" si="3"/>
-        <v>0.02480849478</v>
+        <v>0.02319746647</v>
       </c>
       <c r="F34" s="77">
         <v>1.0</v>
@@ -2277,17 +2283,17 @@
       </c>
       <c r="B35" s="63">
         <f t="shared" si="1"/>
-        <v>0.0698667918</v>
+        <v>0.06779495943</v>
       </c>
       <c r="C35" s="70">
         <v>451774.0</v>
       </c>
       <c r="D35" s="70">
-        <v>31564.0</v>
+        <v>30628.0</v>
       </c>
       <c r="E35" s="68">
         <f t="shared" si="3"/>
-        <v>0.03615672877</v>
+        <v>0.03442964387</v>
       </c>
       <c r="F35" s="77">
         <v>1.0</v>
@@ -2299,17 +2305,17 @@
       </c>
       <c r="B36" s="63">
         <f t="shared" si="1"/>
-        <v>0.7470127697</v>
+        <v>0.7451476968</v>
       </c>
       <c r="C36" s="70">
         <v>626249.0</v>
       </c>
       <c r="D36" s="70">
-        <v>467816.0</v>
+        <v>466648.0</v>
       </c>
       <c r="E36" s="68">
         <f t="shared" si="3"/>
-        <v>0.220110718</v>
+        <v>0.2183479248</v>
       </c>
       <c r="F36" s="77">
         <v>1.0</v>
@@ -2321,17 +2327,17 @@
       </c>
       <c r="B37" s="63">
         <f t="shared" si="1"/>
-        <v>0.7516791286</v>
+        <v>0.7453919601</v>
       </c>
       <c r="C37" s="70">
         <v>673117.0</v>
       </c>
       <c r="D37" s="70">
-        <v>505968.0</v>
+        <v>501736.0</v>
       </c>
       <c r="E37" s="68">
         <f t="shared" si="3"/>
-        <v>0.3357885514</v>
+        <v>0.3330411815</v>
       </c>
       <c r="F37" s="77">
         <v>1.0</v>
@@ -2343,17 +2349,17 @@
       </c>
       <c r="B38" s="63">
         <f t="shared" si="1"/>
-        <v>0.4836262446</v>
+        <v>0.4831349931</v>
       </c>
       <c r="C38" s="70">
         <v>643255.0</v>
       </c>
       <c r="D38" s="70">
-        <v>311095.0</v>
+        <v>310779.0</v>
       </c>
       <c r="E38" s="68">
         <f t="shared" si="3"/>
-        <v>0.3612401794</v>
+        <v>0.3588812211</v>
       </c>
       <c r="F38" s="77">
         <v>1.0</v>
@@ -2365,17 +2371,17 @@
       </c>
       <c r="B39" s="63">
         <f t="shared" si="1"/>
-        <v>0.3350536015</v>
+        <v>0.3338733137</v>
       </c>
       <c r="C39" s="70">
         <v>634591.0</v>
       </c>
       <c r="D39" s="70">
-        <v>212622.0</v>
+        <v>211873.0</v>
       </c>
       <c r="E39" s="68">
         <f t="shared" si="3"/>
-        <v>0.3574383446</v>
+        <v>0.3552505087</v>
       </c>
       <c r="F39" s="77">
         <v>1.0</v>
@@ -2387,17 +2393,17 @@
       </c>
       <c r="B40" s="63">
         <f t="shared" si="1"/>
-        <v>0.1168186673</v>
+        <v>0.1139429792</v>
       </c>
       <c r="C40" s="70">
         <v>547695.0</v>
       </c>
       <c r="D40" s="70">
-        <v>63981.0</v>
+        <v>62406.0</v>
       </c>
       <c r="E40" s="68">
         <f t="shared" si="3"/>
-        <v>0.3306453498</v>
+        <v>0.3283809216</v>
       </c>
       <c r="F40" s="77">
         <v>1.0</v>
@@ -2409,17 +2415,17 @@
       </c>
       <c r="B41" s="80">
         <f t="shared" si="1"/>
-        <v>0.29345768</v>
+        <v>0.2934160461</v>
       </c>
       <c r="C41" s="73">
         <v>552434.0</v>
       </c>
       <c r="D41" s="73">
-        <v>162116.0</v>
+        <v>162093.0</v>
       </c>
       <c r="E41" s="68">
         <f t="shared" si="3"/>
-        <v>0.3268904053</v>
+        <v>0.324850419</v>
       </c>
       <c r="F41" s="77">
         <v>1.0</v>
@@ -2801,14 +2807,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.71"/>
-    <col customWidth="1" min="2" max="2" width="25.57"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
+    <col customWidth="1" min="1" max="1" width="17.25"/>
+    <col customWidth="1" min="2" max="2" width="22.38"/>
+    <col customWidth="1" min="3" max="3" width="11.38"/>
+    <col customWidth="1" min="4" max="4" width="15.13"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2838,7 +2844,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2910,15 +2916,15 @@
         <v>5471115.0</v>
       </c>
       <c r="D6" s="97">
-        <v>1788455.0</v>
+        <v>1777294.0</v>
       </c>
       <c r="E6" s="96">
         <f t="shared" ref="E6:E15" si="1">D6/C6</f>
-        <v>0.3268904053</v>
+        <v>0.324850419</v>
       </c>
       <c r="F6" s="96">
         <f>E6-B6</f>
-        <v>-0.02310959466</v>
+        <v>-0.02514958103</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3010,18 +3016,23 @@
       <c r="A12" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="96">
+        <v>0.27</v>
+      </c>
       <c r="C12" s="97">
         <v>3245402.0</v>
       </c>
       <c r="D12" s="97">
-        <v>1285905.0</v>
+        <v>1275295.0</v>
       </c>
       <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>0.3962236419</v>
-      </c>
-      <c r="F12" s="96"/>
+        <v>0.3929544013</v>
+      </c>
+      <c r="F12" s="96">
+        <f>E12-B12</f>
+        <v>0.1229544013</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="95" t="s">
@@ -3032,11 +3043,11 @@
         <v>616677.0</v>
       </c>
       <c r="D13" s="97">
-        <v>454.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="96">
         <f t="shared" si="1"/>
-        <v>0.0007362038798</v>
+        <v>0</v>
       </c>
       <c r="F13" s="96"/>
     </row>
@@ -3049,11 +3060,11 @@
         <v>1233305.0</v>
       </c>
       <c r="D14" s="97">
-        <v>132038.0</v>
+        <v>131941.0</v>
       </c>
       <c r="E14" s="96">
         <f t="shared" si="1"/>
-        <v>0.1070602973</v>
+        <v>0.1069816469</v>
       </c>
       <c r="F14" s="96"/>
     </row>
@@ -3066,11 +3077,11 @@
         <v>1066034.0</v>
       </c>
       <c r="D15" s="97">
-        <v>7309.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E15" s="96">
         <f t="shared" si="1"/>
-        <v>0.006856254116</v>
+        <v>0.007221158049</v>
       </c>
       <c r="F15" s="96"/>
     </row>
@@ -3087,13 +3098,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.86"/>
-    <col customWidth="1" min="2" max="2" width="22.86"/>
-    <col customWidth="1" min="3" max="4" width="15.86"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
+    <col customWidth="1" min="1" max="1" width="18.25"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="3" max="4" width="13.88"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -3123,7 +3134,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3188,7 +3199,9 @@
       <c r="A6" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="96">
+        <v>0.06</v>
+      </c>
       <c r="C6" s="97">
         <v>376764.0</v>
       </c>
@@ -3199,15 +3212,18 @@
         <f t="shared" ref="E6:E34" si="1">D6/C6</f>
         <v>0.01209245045</v>
       </c>
-      <c r="F6" s="96" t="s">
-        <v>8</v>
+      <c r="F6" s="96">
+        <f t="shared" ref="F6:F34" si="2">E6-B6</f>
+        <v>-0.04790754955</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="96">
+        <v>0.1</v>
+      </c>
       <c r="C7" s="97">
         <v>616207.0</v>
       </c>
@@ -3218,30 +3234,40 @@
         <f t="shared" si="1"/>
         <v>0.001543312556</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.09845668744</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="96">
+        <v>0.06</v>
+      </c>
       <c r="C8" s="97">
         <v>377553.0</v>
       </c>
       <c r="D8" s="97">
-        <v>454.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="99">
         <f t="shared" si="1"/>
-        <v>0.001202480182</v>
-      </c>
-      <c r="F8" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="96">
+        <v>0.04</v>
+      </c>
       <c r="C9" s="97">
         <v>516404.0</v>
       </c>
@@ -3252,13 +3278,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="96"/>
+      <c r="F9" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="96">
+        <v>0.09</v>
+      </c>
       <c r="C10" s="97">
         <v>459818.0</v>
       </c>
@@ -3269,13 +3300,18 @@
         <f t="shared" si="1"/>
         <v>0.06676337159</v>
       </c>
-      <c r="F10" s="96"/>
+      <c r="F10" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.02323662841</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="96">
+        <v>0.1</v>
+      </c>
       <c r="C11" s="97">
         <v>252361.0</v>
       </c>
@@ -3286,30 +3322,40 @@
         <f t="shared" si="1"/>
         <v>0.00219526789</v>
       </c>
-      <c r="F11" s="96"/>
+      <c r="F11" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.09780473211</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="96">
+        <v>0.18</v>
+      </c>
       <c r="C12" s="97">
         <v>1569642.0</v>
       </c>
       <c r="D12" s="97">
-        <v>380795.0</v>
+        <v>381077.0</v>
       </c>
       <c r="E12" s="99">
         <f t="shared" si="1"/>
-        <v>0.2425999049</v>
-      </c>
-      <c r="F12" s="96"/>
+        <v>0.2427795637</v>
+      </c>
+      <c r="F12" s="96">
+        <f t="shared" si="2"/>
+        <v>0.06277956375</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="96"/>
+      <c r="B13" s="96">
+        <v>0.18</v>
+      </c>
       <c r="C13" s="97">
         <v>1778460.0</v>
       </c>
@@ -3320,13 +3366,18 @@
         <f t="shared" si="1"/>
         <v>0.4636921831</v>
       </c>
-      <c r="F13" s="96"/>
+      <c r="F13" s="96">
+        <f t="shared" si="2"/>
+        <v>0.2836921831</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="96"/>
+      <c r="B14" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C14" s="97">
         <v>109310.0</v>
       </c>
@@ -3337,30 +3388,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="96">
+        <v>0.12</v>
+      </c>
       <c r="C15" s="97">
         <v>1190547.0</v>
       </c>
       <c r="D15" s="97">
-        <v>106478.0</v>
+        <v>106381.0</v>
       </c>
       <c r="E15" s="99">
         <f t="shared" si="1"/>
-        <v>0.08943620033</v>
-      </c>
-      <c r="F15" s="96"/>
+        <v>0.08935472518</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.03064527482</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="96"/>
+      <c r="B16" s="96">
+        <v>0.07</v>
+      </c>
       <c r="C16" s="97">
         <v>1019830.0</v>
       </c>
@@ -3371,13 +3432,18 @@
         <f t="shared" si="1"/>
         <v>0.05301275703</v>
       </c>
-      <c r="F16" s="96"/>
+      <c r="F16" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01698724297</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="96"/>
+      <c r="B17" s="96">
+        <v>0.03</v>
+      </c>
       <c r="C17" s="97">
         <v>113380.0</v>
       </c>
@@ -3388,13 +3454,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="96"/>
+      <c r="F17" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="96"/>
+      <c r="B18" s="96">
+        <v>0.32</v>
+      </c>
       <c r="C18" s="97">
         <v>569004.0</v>
       </c>
@@ -3405,13 +3476,18 @@
         <f t="shared" si="1"/>
         <v>0.4301147268</v>
       </c>
-      <c r="F18" s="96"/>
+      <c r="F18" s="96">
+        <f t="shared" si="2"/>
+        <v>0.1101147268</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="96"/>
+      <c r="B19" s="96">
+        <v>0.06</v>
+      </c>
       <c r="C19" s="97">
         <v>488852.0</v>
       </c>
@@ -3422,13 +3498,18 @@
         <f t="shared" si="1"/>
         <v>0.005030152275</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.05496984772</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="96"/>
+      <c r="B20" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C20" s="97">
         <v>300150.0</v>
       </c>
@@ -3439,13 +3520,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="96"/>
+      <c r="F20" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="96"/>
+      <c r="B21" s="96">
+        <v>0.05</v>
+      </c>
       <c r="C21" s="97">
         <v>358510.0</v>
       </c>
@@ -3456,13 +3542,18 @@
         <f t="shared" si="1"/>
         <v>0.000211988508</v>
       </c>
-      <c r="F21" s="96"/>
+      <c r="F21" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.04978801149</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="96"/>
+      <c r="B22" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C22" s="97">
         <v>162860.0</v>
       </c>
@@ -3473,13 +3564,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="96"/>
+      <c r="F22" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="96"/>
+      <c r="B23" s="96">
+        <v>0.05</v>
+      </c>
       <c r="C23" s="97">
         <v>270522.0</v>
       </c>
@@ -3490,13 +3586,18 @@
         <f t="shared" si="1"/>
         <v>0.0002513658778</v>
       </c>
-      <c r="F23" s="96"/>
+      <c r="F23" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.04974863412</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="96"/>
+      <c r="B24" s="96">
+        <v>0.06</v>
+      </c>
       <c r="C24" s="97">
         <v>344082.0</v>
       </c>
@@ -3507,13 +3608,18 @@
         <f t="shared" si="1"/>
         <v>0.06964909527</v>
       </c>
-      <c r="F24" s="96"/>
+      <c r="F24" s="96">
+        <f t="shared" si="2"/>
+        <v>0.009649095274</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="96"/>
+      <c r="B25" s="96">
+        <v>0.13</v>
+      </c>
       <c r="C25" s="97">
         <v>936360.0</v>
       </c>
@@ -3524,13 +3630,18 @@
         <f t="shared" si="1"/>
         <v>0.004285744799</v>
       </c>
-      <c r="F25" s="96"/>
+      <c r="F25" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.1257142552</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="96"/>
+      <c r="B26" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C26" s="97">
         <v>73203.0</v>
       </c>
@@ -3541,13 +3652,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="96"/>
+      <c r="B27" s="96">
+        <v>0.09</v>
+      </c>
       <c r="C27" s="97">
         <v>343916.0</v>
       </c>
@@ -3558,13 +3674,18 @@
         <f t="shared" si="1"/>
         <v>0.0743204736</v>
       </c>
-      <c r="F27" s="96"/>
+      <c r="F27" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.0156795264</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="96"/>
+      <c r="B28" s="96">
+        <v>0.03</v>
+      </c>
       <c r="C28" s="97">
         <v>305617.0</v>
       </c>
@@ -3575,13 +3696,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="96"/>
+      <c r="F28" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="96">
+        <v>0.01</v>
+      </c>
       <c r="C29" s="97">
         <v>162028.0</v>
       </c>
@@ -3592,13 +3718,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="96"/>
+      <c r="F29" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="96"/>
+      <c r="B30" s="96">
+        <v>0.07</v>
+      </c>
       <c r="C30" s="97">
         <v>459671.0</v>
       </c>
@@ -3609,13 +3740,18 @@
         <f t="shared" si="1"/>
         <v>0.06938440754</v>
       </c>
-      <c r="F30" s="96"/>
+      <c r="F30" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.0006155924563</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="96">
+        <v>0.02</v>
+      </c>
       <c r="C31" s="97">
         <v>453589.0</v>
       </c>
@@ -3626,13 +3762,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="96"/>
+      <c r="F31" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="96">
+        <v>0.07</v>
+      </c>
       <c r="C32" s="97">
         <v>353843.0</v>
       </c>
@@ -3643,30 +3784,40 @@
         <f t="shared" si="1"/>
         <v>0.01241228454</v>
       </c>
-      <c r="F32" s="96"/>
+      <c r="F32" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.05758771546</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="96"/>
+      <c r="B33" s="96">
+        <v>0.12</v>
+      </c>
       <c r="C33" s="97">
         <v>693191.0</v>
       </c>
       <c r="D33" s="97">
-        <v>48082.0</v>
+        <v>37190.0</v>
       </c>
       <c r="E33" s="99">
         <f t="shared" si="1"/>
-        <v>0.06936327794</v>
-      </c>
-      <c r="F33" s="96"/>
+        <v>0.05365043689</v>
+      </c>
+      <c r="F33" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.06634956311</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="96">
+        <v>0.05</v>
+      </c>
       <c r="C34" s="97">
         <v>224069.0</v>
       </c>
@@ -3677,7 +3828,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="96"/>
+      <c r="F34" s="96">
+        <f t="shared" si="2"/>
+        <v>-0.05</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3692,12 +3846,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="6.29"/>
-    <col customWidth="1" min="3" max="3" width="12.86"/>
-    <col customWidth="1" min="4" max="4" width="140.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="5.5"/>
+    <col customWidth="1" min="3" max="3" width="11.25"/>
+    <col customWidth="1" min="4" max="4" width="123.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -3727,10 +3881,16 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="101">
+        <v>44665.0</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>157</v>
+      </c>
       <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
+      <c r="D3" s="102" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="104"/>
